--- a/[S4]软件需求收尾/用户打分/非功能需求/SRA2021-G14-加上非功能需求排序.xlsx
+++ b/[S4]软件需求收尾/用户打分/非功能需求/SRA2021-G14-加上非功能需求排序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10007"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,14 +577,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,122 +719,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,7 +753,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,175 +915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,47 +940,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,6 +977,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1044,155 +1000,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1208,10 +1190,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1531,16 +1516,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X176"/>
+  <dimension ref="A1:X177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A153" sqref="W153:X176 A153:A176"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="AB168" sqref="AB168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="28.3981481481481" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.0648148148148" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667"/>
+    <col min="18" max="18" width="12.8888888888889"/>
     <col min="20" max="20" width="12.8888888888889"/>
     <col min="22" max="22" width="12.8888888888889"/>
     <col min="23" max="23" width="12.2037037037037" customWidth="1"/>
@@ -6432,11 +6419,11 @@
       </c>
       <c r="W69">
         <f t="shared" ref="W69:W132" si="21">SUM(T69,V69)</f>
-        <v>0.0209857527916827</v>
+        <v>0.0209857527916828</v>
       </c>
       <c r="X69">
         <f t="shared" ref="X69:X132" si="22">R69/W69</f>
-        <v>0.420693911865708</v>
+        <v>0.420693911865707</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -6704,7 +6691,7 @@
       </c>
       <c r="X73">
         <f t="shared" si="22"/>
-        <v>0.560925215820945</v>
+        <v>0.560925215820944</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -6850,7 +6837,7 @@
       </c>
       <c r="X75">
         <f t="shared" si="22"/>
-        <v>0.765429200755664</v>
+        <v>0.765429200755663</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -6923,7 +6910,7 @@
       </c>
       <c r="X76">
         <f t="shared" si="22"/>
-        <v>0.999148040681058</v>
+        <v>0.999148040681057</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -7406,11 +7393,11 @@
       </c>
       <c r="W83">
         <f t="shared" si="21"/>
-        <v>0.0209857527916827</v>
+        <v>0.0209857527916828</v>
       </c>
       <c r="X83">
         <f t="shared" si="22"/>
-        <v>0.44114431035918</v>
+        <v>0.441144310359179</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -7552,11 +7539,11 @@
       </c>
       <c r="W85">
         <f t="shared" si="21"/>
-        <v>0.0313342318059299</v>
+        <v>0.03133423180593</v>
       </c>
       <c r="X85">
         <f t="shared" si="22"/>
-        <v>0.303278018474618</v>
+        <v>0.303278018474617</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -7946,7 +7933,7 @@
       </c>
       <c r="X91">
         <f t="shared" si="22"/>
-        <v>0.923189417705305</v>
+        <v>0.923189417705304</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -8060,11 +8047,11 @@
       </c>
       <c r="W93">
         <f t="shared" si="21"/>
-        <v>0.0209857527916827</v>
+        <v>0.0209857527916828</v>
       </c>
       <c r="X93">
         <f t="shared" si="22"/>
-        <v>0.420693911865708</v>
+        <v>0.420693911865707</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -10920,24 +10907,36 @@
         <f t="shared" ref="D138:D176" si="35">SUM(B138:C138)*1.5</f>
         <v>0</v>
       </c>
+      <c r="G138">
+        <f t="shared" ref="G138:G176" si="36">SUM(E138:F138)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M138">
-        <f t="shared" ref="M138:M176" si="36">SUM(K138:L138)</f>
+        <f t="shared" ref="M138:M176" si="37">SUM(K138:L138)</f>
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <f t="shared" ref="P138:P176" si="38">SUM(N138:O138)</f>
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <f t="shared" ref="R138:R176" si="39">Q138/4893.2</f>
         <v>0</v>
       </c>
       <c r="T138">
-        <f t="shared" ref="T138:T176" si="37">S138/371</f>
+        <f t="shared" ref="T138:T176" si="40">S138/371</f>
         <v>0</v>
       </c>
       <c r="V138">
-        <f t="shared" ref="V138:V176" si="38">U138/392</f>
+        <f t="shared" ref="V138:V176" si="41">U138/392</f>
         <v>0</v>
       </c>
       <c r="W138">
-        <f t="shared" ref="W138:W176" si="39">SUM(T138,V138)</f>
+        <f t="shared" ref="W138:W176" si="42">SUM(T138,V138)</f>
         <v>0</v>
       </c>
       <c r="X138" t="e">
-        <f t="shared" ref="X138:X176" si="40">R138/W138</f>
+        <f t="shared" ref="X138:X176" si="43">R138/W138</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10955,12 +10954,16 @@
         <v>2268</v>
       </c>
       <c r="E139">
-        <f t="shared" ref="E139:F139" si="41">SUM(E4:E137)</f>
+        <f t="shared" ref="E139:F139" si="44">SUM(E4:E137)</f>
         <v>456</v>
       </c>
       <c r="F139">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>317</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="36"/>
+        <v>927.6</v>
       </c>
       <c r="H139">
         <f>SUM(H4:H137)</f>
@@ -10970,6 +10973,10 @@
         <f>SUM(I4:I137)</f>
         <v>479</v>
       </c>
+      <c r="J139">
+        <f>SUM(H139:I139)*1.2</f>
+        <v>1149.6</v>
+      </c>
       <c r="K139">
         <f>SUM(K4:K137)</f>
         <v>141</v>
@@ -10979,7 +10986,7 @@
         <v>143</v>
       </c>
       <c r="M139">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>284</v>
       </c>
       <c r="N139">
@@ -10990,12 +10997,24 @@
         <f>SUM(O4:O137)</f>
         <v>132</v>
       </c>
+      <c r="P139">
+        <f t="shared" si="38"/>
+        <v>264</v>
+      </c>
+      <c r="Q139">
+        <f>SUM(D139,G139,J139,M139,P139)</f>
+        <v>4893.2</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
       <c r="S139">
         <f>SUM(S4:S137)</f>
         <v>362</v>
       </c>
       <c r="T139">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.975741239892183</v>
       </c>
       <c r="U139">
@@ -11003,16 +11022,16 @@
         <v>383</v>
       </c>
       <c r="V139">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.977040816326531</v>
       </c>
       <c r="W139">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.95278205621871</v>
       </c>
       <c r="X139">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.512089916442779</v>
       </c>
     </row>
     <row r="140" spans="2:24">
@@ -11026,33 +11045,53 @@
       <c r="E140">
         <v>927.6</v>
       </c>
+      <c r="G140">
+        <f t="shared" si="36"/>
+        <v>1113.12</v>
+      </c>
       <c r="H140">
         <v>1149.6</v>
       </c>
+      <c r="J140">
+        <f>SUM(H140:I140)*1.2</f>
+        <v>1379.52</v>
+      </c>
       <c r="K140">
         <v>284</v>
       </c>
       <c r="M140">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>284</v>
       </c>
       <c r="N140">
         <v>264</v>
       </c>
+      <c r="P140">
+        <f t="shared" si="38"/>
+        <v>264</v>
+      </c>
+      <c r="Q140">
+        <f>SUM(D140,G140,J140,M140,P140)</f>
+        <v>6442.64</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="39"/>
+        <v>1.31665167988229</v>
+      </c>
       <c r="T140">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V140">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W140">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X140" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11061,24 +11100,44 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G141">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <f>SUM(H141:I141)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M141">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <f>SUM(D141,G141,J141,M141,P141)</f>
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T141">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V141">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W141">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X141" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11087,24 +11146,44 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G142">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <f>SUM(H142:I142)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M142">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <f>SUM(D142,G142,J142,M142,P142)</f>
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T142">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V142">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W142">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X142" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11113,24 +11192,44 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G143">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <f>SUM(H143:I143)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M143">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <f>SUM(D143,G143,J143,M143,P143)</f>
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T143">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V143">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W143">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X143" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11139,24 +11238,44 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G144">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <f>SUM(H144:I144)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M144">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <f>SUM(D144,G144,J144,M144,P144)</f>
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T144">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V144">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X144" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11165,24 +11284,44 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G145">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <f>SUM(H145:I145)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M145">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <f>SUM(D145,G145,J145,M145,P145)</f>
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T145">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V145">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W145">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X145" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11191,24 +11330,40 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G146">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
       <c r="M146">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <f>SUM(D146,G146,J146,M146,P146)</f>
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T146">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V146">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W146">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X146" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11217,24 +11372,44 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G147">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <f>SUM(H147:I147)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M147">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <f>SUM(D147,G147,J147,M147,P147)</f>
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T147">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V147">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W147">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X147" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11243,24 +11418,44 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G148">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <f>SUM(H148:I148)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M148">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <f>SUM(D148,G148,J148,M148,P148)</f>
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T148">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V148">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W148">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X148" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11269,24 +11464,40 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G149">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <f>SUM(H149:I149)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M149">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T149">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V149">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W149">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X149" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11295,24 +11506,44 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G150">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <f>SUM(H150:I150)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M150">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <f>SUM(D150,G150,J150,M150,P150)</f>
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T150">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V150">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W150">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X150" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11321,24 +11552,44 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G151">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <f>SUM(H151:I151)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="M151">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <f>SUM(D151,G151,J151,M151,P151)</f>
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T151">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V151">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W151">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X151" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11347,28 +11598,48 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G152">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <f>SUM(H152:I152)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="K152">
         <f>SUM(B140:N140)</f>
-        <v>8579.2</v>
+        <v>11071.84</v>
       </c>
       <c r="M152">
-        <f t="shared" si="36"/>
-        <v>8579.2</v>
+        <f t="shared" si="37"/>
+        <v>11071.84</v>
+      </c>
+      <c r="P152">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <f>SUM(D152,G152,J152,M152,P152)</f>
+        <v>11071.84</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="39"/>
+        <v>2.26269925611052</v>
       </c>
       <c r="T152">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V152">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W152">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X152" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11381,27 +11652,49 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="G153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153">
+        <f>SUM(H153:I153)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="L153" s="11"/>
       <c r="M153">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S153" s="12"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <f>SUM(D153,G153,J153,M153,P153)</f>
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S153" s="13"/>
       <c r="T153">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U153" s="12"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U153" s="13"/>
       <c r="V153">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W153">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X153" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11419,6 +11712,22 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
+      <c r="E154" s="11">
+        <v>7</v>
+      </c>
+      <c r="F154" s="11">
+        <v>7</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="36"/>
+        <v>16.8</v>
+      </c>
+      <c r="H154" s="12">
+        <v>9</v>
+      </c>
+      <c r="I154" s="12">
+        <v>9</v>
+      </c>
       <c r="K154" s="11">
         <v>9</v>
       </c>
@@ -11426,30 +11735,42 @@
         <v>9</v>
       </c>
       <c r="M154">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>18</v>
       </c>
-      <c r="S154" s="12">
+      <c r="P154">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <f>SUM(D154,G154,J154,M154,P154)</f>
+        <v>55.8</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="39"/>
+        <v>0.0114035804790321</v>
+      </c>
+      <c r="S154" s="13">
         <v>5</v>
       </c>
       <c r="T154">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.0134770889487871</v>
       </c>
-      <c r="U154" s="12">
+      <c r="U154" s="13">
         <v>3</v>
       </c>
       <c r="V154">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W154">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.0211301501732769</v>
       </c>
       <c r="X154">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.539682888456427</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -11466,6 +11787,26 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
+      <c r="E155" s="11">
+        <v>7</v>
+      </c>
+      <c r="F155" s="11">
+        <v>7</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="36"/>
+        <v>16.8</v>
+      </c>
+      <c r="H155" s="12">
+        <v>9</v>
+      </c>
+      <c r="I155" s="12">
+        <v>9</v>
+      </c>
+      <c r="J155">
+        <f>SUM(H155:I155)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K155" s="11">
         <v>5</v>
       </c>
@@ -11473,30 +11814,48 @@
         <v>9</v>
       </c>
       <c r="M155">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
-      <c r="S155" s="12">
+      <c r="N155">
+        <v>6</v>
+      </c>
+      <c r="O155">
+        <v>6</v>
+      </c>
+      <c r="P155">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q155">
+        <f>SUM(D155,G155,J155,M155,P155)</f>
+        <v>85.4</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="39"/>
+        <v>0.0174527916291997</v>
+      </c>
+      <c r="S155" s="13">
         <v>3</v>
       </c>
       <c r="T155">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U155" s="12">
+      <c r="U155" s="13">
         <v>3</v>
       </c>
       <c r="V155">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W155">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.015739314593762</v>
       </c>
       <c r="X155">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.10886605164603</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -11513,6 +11872,26 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
+      <c r="E156" s="11">
+        <v>7</v>
+      </c>
+      <c r="F156" s="11">
+        <v>7</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="36"/>
+        <v>16.8</v>
+      </c>
+      <c r="H156" s="12">
+        <v>9</v>
+      </c>
+      <c r="I156" s="12">
+        <v>9</v>
+      </c>
+      <c r="J156">
+        <f>SUM(H156:I156)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K156" s="11">
         <v>5</v>
       </c>
@@ -11520,30 +11899,48 @@
         <v>5</v>
       </c>
       <c r="M156">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
-      <c r="S156" s="12">
+      <c r="N156">
+        <v>6</v>
+      </c>
+      <c r="O156">
+        <v>6</v>
+      </c>
+      <c r="P156">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q156">
+        <f>SUM(D156,G156,J156,M156,P156)</f>
+        <v>81.4</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="39"/>
+        <v>0.0166353306629608</v>
+      </c>
+      <c r="S156" s="13">
         <v>3</v>
       </c>
       <c r="T156">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U156" s="12">
+      <c r="U156" s="13">
         <v>3</v>
       </c>
       <c r="V156">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W156">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.015739314593762</v>
       </c>
       <c r="X156">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.05692853166261</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -11560,6 +11957,26 @@
         <f t="shared" si="35"/>
         <v>18</v>
       </c>
+      <c r="E157" s="11">
+        <v>6</v>
+      </c>
+      <c r="F157" s="11">
+        <v>6</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="36"/>
+        <v>14.4</v>
+      </c>
+      <c r="H157" s="12">
+        <v>9</v>
+      </c>
+      <c r="I157" s="12">
+        <v>9</v>
+      </c>
+      <c r="J157">
+        <f>SUM(H157:I157)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K157" s="11">
         <v>7</v>
       </c>
@@ -11567,30 +11984,48 @@
         <v>5</v>
       </c>
       <c r="M157">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
-      <c r="S157" s="12">
+      <c r="N157">
+        <v>6</v>
+      </c>
+      <c r="O157">
+        <v>6</v>
+      </c>
+      <c r="P157">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q157">
+        <f>SUM(D157,G157,J157,M157,P157)</f>
+        <v>78</v>
+      </c>
+      <c r="R157">
+        <f t="shared" si="39"/>
+        <v>0.0159404888416578</v>
+      </c>
+      <c r="S157" s="13">
         <v>2</v>
       </c>
       <c r="T157">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00539083557951483</v>
       </c>
-      <c r="U157" s="12">
+      <c r="U157" s="13">
         <v>2</v>
       </c>
       <c r="V157">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.00510204081632653</v>
       </c>
       <c r="W157">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.0104928763958414</v>
       </c>
       <c r="X157">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.51917245951506</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -11607,6 +12042,26 @@
         <f t="shared" si="35"/>
         <v>18</v>
       </c>
+      <c r="E158" s="11">
+        <v>6</v>
+      </c>
+      <c r="F158" s="11">
+        <v>6</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="36"/>
+        <v>14.4</v>
+      </c>
+      <c r="H158" s="12">
+        <v>9</v>
+      </c>
+      <c r="I158" s="12">
+        <v>9</v>
+      </c>
+      <c r="J158">
+        <f>SUM(H158:I158)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K158" s="11">
         <v>1</v>
       </c>
@@ -11614,30 +12069,48 @@
         <v>1</v>
       </c>
       <c r="M158">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="S158" s="12">
+      <c r="N158">
+        <v>6</v>
+      </c>
+      <c r="O158">
+        <v>6</v>
+      </c>
+      <c r="P158">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q158">
+        <f>SUM(D158,G158,J158,M158,P158)</f>
+        <v>68</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="39"/>
+        <v>0.0138968364260607</v>
+      </c>
+      <c r="S158" s="13">
         <v>3</v>
       </c>
       <c r="T158">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U158" s="12">
+      <c r="U158" s="13">
         <v>5</v>
       </c>
       <c r="V158">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0127551020408163</v>
       </c>
       <c r="W158">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.0208413554100886</v>
       </c>
       <c r="X158">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.666791393967289</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -11654,6 +12127,26 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
+      <c r="E159" s="11">
+        <v>7</v>
+      </c>
+      <c r="F159" s="11">
+        <v>7</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="36"/>
+        <v>16.8</v>
+      </c>
+      <c r="H159" s="12">
+        <v>9</v>
+      </c>
+      <c r="I159" s="12">
+        <v>9</v>
+      </c>
+      <c r="J159">
+        <f>SUM(H159:I159)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K159" s="11">
         <v>6</v>
       </c>
@@ -11661,30 +12154,48 @@
         <v>5</v>
       </c>
       <c r="M159">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
-      <c r="S159" s="12">
+      <c r="N159">
+        <v>6</v>
+      </c>
+      <c r="O159">
+        <v>6</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q159">
+        <f>SUM(D159,G159,J159,M159,P159)</f>
+        <v>82.4</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="39"/>
+        <v>0.0168396959045206</v>
+      </c>
+      <c r="S159" s="13">
         <v>3</v>
       </c>
       <c r="T159">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U159" s="12">
+      <c r="U159" s="13">
         <v>3</v>
       </c>
       <c r="V159">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W159">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.015739314593762</v>
       </c>
       <c r="X159">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.06991291165847</v>
       </c>
     </row>
     <row r="160" ht="15.6" spans="1:24">
@@ -11697,28 +12208,48 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160">
+        <f>SUM(H160:I160)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="K160" s="11"/>
       <c r="L160" s="11"/>
       <c r="M160">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S160" s="12"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S160" s="13"/>
       <c r="T160">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U160" s="12"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U160" s="13"/>
       <c r="V160">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W160">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X160" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11736,6 +12267,26 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
+      <c r="E161" s="11">
+        <v>7</v>
+      </c>
+      <c r="F161" s="11">
+        <v>7</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="36"/>
+        <v>16.8</v>
+      </c>
+      <c r="H161" s="12">
+        <v>9</v>
+      </c>
+      <c r="I161" s="12">
+        <v>9</v>
+      </c>
+      <c r="J161">
+        <f>SUM(H161:I161)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K161" s="11">
         <v>1</v>
       </c>
@@ -11743,30 +12294,48 @@
         <v>1</v>
       </c>
       <c r="M161">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="S161" s="12">
+      <c r="N161">
+        <v>7</v>
+      </c>
+      <c r="O161">
+        <v>7</v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+      <c r="Q161">
+        <f>SUM(D161,G161,J161,M161,P161)</f>
+        <v>75.4</v>
+      </c>
+      <c r="R161">
+        <f t="shared" si="39"/>
+        <v>0.0154091392136025</v>
+      </c>
+      <c r="S161" s="13">
         <v>3</v>
       </c>
       <c r="T161">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U161" s="12">
+      <c r="U161" s="13">
         <v>3</v>
       </c>
       <c r="V161">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W161">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.015739314593762</v>
       </c>
       <c r="X161">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.979022251687482</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -11783,6 +12352,22 @@
         <f t="shared" si="35"/>
         <v>18</v>
       </c>
+      <c r="E162" s="11">
+        <v>6</v>
+      </c>
+      <c r="F162" s="11">
+        <v>6</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="36"/>
+        <v>14.4</v>
+      </c>
+      <c r="H162" s="12">
+        <v>9</v>
+      </c>
+      <c r="I162" s="12">
+        <v>9</v>
+      </c>
       <c r="K162" s="11">
         <v>8</v>
       </c>
@@ -11790,30 +12375,42 @@
         <v>5</v>
       </c>
       <c r="M162">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>13</v>
       </c>
-      <c r="S162" s="12">
+      <c r="P162">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <f>SUM(D162,G162,J162,M162,P162)</f>
+        <v>45.4</v>
+      </c>
+      <c r="R162">
+        <f t="shared" si="39"/>
+        <v>0.00927818196681108</v>
+      </c>
+      <c r="S162" s="13">
         <v>2</v>
       </c>
       <c r="T162">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00539083557951483</v>
       </c>
-      <c r="U162" s="12">
+      <c r="U162" s="13">
         <v>1</v>
       </c>
       <c r="V162">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.00255102040816327</v>
       </c>
       <c r="W162">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.00794185598767809</v>
       </c>
       <c r="X162">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.16826368813616</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -11830,6 +12427,26 @@
         <f t="shared" si="35"/>
         <v>18</v>
       </c>
+      <c r="E163" s="11">
+        <v>6</v>
+      </c>
+      <c r="F163" s="11">
+        <v>6</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="36"/>
+        <v>14.4</v>
+      </c>
+      <c r="H163" s="12">
+        <v>9</v>
+      </c>
+      <c r="I163" s="12">
+        <v>9</v>
+      </c>
+      <c r="J163">
+        <f>SUM(H163:I163)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K163" s="11">
         <v>7</v>
       </c>
@@ -11837,30 +12454,48 @@
         <v>7</v>
       </c>
       <c r="M163">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
-      <c r="S163" s="12">
+      <c r="N163">
+        <v>6</v>
+      </c>
+      <c r="O163">
+        <v>6</v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q163">
+        <f>SUM(D163,G163,J163,M163,P163)</f>
+        <v>80</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="39"/>
+        <v>0.0163492193247772</v>
+      </c>
+      <c r="S163" s="13">
         <v>3</v>
       </c>
       <c r="T163">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U163" s="12">
+      <c r="U163" s="13">
         <v>3</v>
       </c>
       <c r="V163">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W163">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.015739314593762</v>
       </c>
       <c r="X163">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.03875039966842</v>
       </c>
     </row>
     <row r="164" ht="15.6" spans="1:24">
@@ -11873,28 +12508,58 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164">
+        <f>SUM(H164:I164)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="K164" s="11"/>
       <c r="L164" s="11"/>
       <c r="M164">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S164" s="12"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>6</v>
+      </c>
+      <c r="O164">
+        <v>6</v>
+      </c>
+      <c r="P164">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q164">
+        <f>SUM(D164,G164,J164,M164,P164)</f>
+        <v>12</v>
+      </c>
+      <c r="R164">
+        <f t="shared" si="39"/>
+        <v>0.00245238289871659</v>
+      </c>
+      <c r="S164" s="13"/>
       <c r="T164">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U164" s="12"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U164" s="13"/>
       <c r="V164">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W164">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X164" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11912,6 +12577,26 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
+      <c r="E165" s="11">
+        <v>7</v>
+      </c>
+      <c r="F165" s="11">
+        <v>7</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="36"/>
+        <v>16.8</v>
+      </c>
+      <c r="H165" s="12">
+        <v>9</v>
+      </c>
+      <c r="I165" s="12">
+        <v>9</v>
+      </c>
+      <c r="J165">
+        <f>SUM(H165:I165)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K165" s="11">
         <v>1</v>
       </c>
@@ -11919,30 +12604,48 @@
         <v>1</v>
       </c>
       <c r="M165">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="S165" s="12">
+      <c r="N165">
+        <v>7</v>
+      </c>
+      <c r="O165">
+        <v>7</v>
+      </c>
+      <c r="P165">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+      <c r="Q165">
+        <f>SUM(D165,G165,J165,M165,P165)</f>
+        <v>75.4</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="39"/>
+        <v>0.0154091392136025</v>
+      </c>
+      <c r="S165" s="13">
         <v>4</v>
       </c>
       <c r="T165">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.0107816711590297</v>
       </c>
-      <c r="U165" s="12">
+      <c r="U165" s="13">
         <v>4</v>
       </c>
       <c r="V165">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0102040816326531</v>
       </c>
       <c r="W165">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.0209857527916827</v>
       </c>
       <c r="X165">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.734266688765611</v>
       </c>
     </row>
     <row r="166" ht="15.6" spans="1:24">
@@ -11955,28 +12658,52 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166">
+        <f>SUM(H166:I166)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="K166" s="11"/>
       <c r="L166" s="11"/>
       <c r="M166">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S166" s="12"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <f>SUM(D166,G166,J166,M166,P166)</f>
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S166" s="13"/>
       <c r="T166">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U166" s="12"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U166" s="13"/>
       <c r="V166">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W166">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X166" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11994,6 +12721,26 @@
         <f t="shared" si="35"/>
         <v>24</v>
       </c>
+      <c r="E167" s="11">
+        <v>8</v>
+      </c>
+      <c r="F167" s="11">
+        <v>8</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="36"/>
+        <v>19.2</v>
+      </c>
+      <c r="H167" s="12">
+        <v>9</v>
+      </c>
+      <c r="I167" s="12">
+        <v>9</v>
+      </c>
+      <c r="J167">
+        <f>SUM(H167:I167)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K167" s="11">
         <v>1</v>
       </c>
@@ -12001,30 +12748,48 @@
         <v>1</v>
       </c>
       <c r="M167">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="S167" s="12">
+      <c r="N167">
+        <v>6</v>
+      </c>
+      <c r="O167">
+        <v>6</v>
+      </c>
+      <c r="P167">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q167">
+        <f>SUM(D167,G167,J167,M167,P167)</f>
+        <v>78.8</v>
+      </c>
+      <c r="R167">
+        <f t="shared" si="39"/>
+        <v>0.0161039810349056</v>
+      </c>
+      <c r="S167" s="13">
         <v>3</v>
       </c>
       <c r="T167">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U167" s="12">
+      <c r="U167" s="13">
         <v>3</v>
       </c>
       <c r="V167">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W167">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.015739314593762</v>
       </c>
       <c r="X167">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.02316914367339</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -12041,6 +12806,26 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
+      <c r="E168" s="11">
+        <v>7</v>
+      </c>
+      <c r="F168" s="11">
+        <v>7</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="36"/>
+        <v>16.8</v>
+      </c>
+      <c r="H168" s="12">
+        <v>9</v>
+      </c>
+      <c r="I168" s="12">
+        <v>9</v>
+      </c>
+      <c r="J168">
+        <f>SUM(H168:I168)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K168" s="11">
         <v>1</v>
       </c>
@@ -12048,30 +12833,48 @@
         <v>1</v>
       </c>
       <c r="M168">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="S168" s="12">
+      <c r="N168">
+        <v>6</v>
+      </c>
+      <c r="O168">
+        <v>6</v>
+      </c>
+      <c r="P168">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q168">
+        <f>SUM(D168,G168,J168,M168,P168)</f>
+        <v>73.4</v>
+      </c>
+      <c r="R168">
+        <f t="shared" si="39"/>
+        <v>0.0150004087304831</v>
+      </c>
+      <c r="S168" s="13">
         <v>2</v>
       </c>
       <c r="T168">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00539083557951483</v>
       </c>
-      <c r="U168" s="12">
+      <c r="U168" s="13">
         <v>2</v>
       </c>
       <c r="V168">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.00510204081632653</v>
       </c>
       <c r="W168">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.0104928763958414</v>
       </c>
       <c r="X168">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.42958023754366</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -12088,33 +12891,65 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
+      <c r="E169" s="11">
+        <v>7</v>
+      </c>
+      <c r="F169" s="11">
+        <v>7</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="36"/>
+        <v>16.8</v>
+      </c>
+      <c r="H169" s="12">
+        <v>9</v>
+      </c>
+      <c r="I169" s="12">
+        <v>9</v>
+      </c>
+      <c r="J169">
+        <f>SUM(H169:I169)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K169" s="11"/>
       <c r="L169" s="11"/>
       <c r="M169">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S169" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <f>SUM(D169,G169,J169,M169,P169)</f>
+        <v>59.4</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="39"/>
+        <v>0.0121392953486471</v>
+      </c>
+      <c r="S169" s="13">
         <v>3</v>
       </c>
       <c r="T169">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U169" s="12">
+      <c r="U169" s="13">
         <v>3</v>
       </c>
       <c r="V169">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W169">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.015739314593762</v>
       </c>
       <c r="X169">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.771272171753799</v>
       </c>
     </row>
     <row r="170" ht="15.6" spans="1:24">
@@ -12127,28 +12962,48 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
       <c r="K170" s="11"/>
       <c r="L170" s="11"/>
       <c r="M170">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S170" s="12"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <f>SUM(D170,G170,J170,M170,P170)</f>
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S170" s="13"/>
       <c r="T170">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U170" s="12"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U170" s="13"/>
       <c r="V170">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W170">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X170" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12166,6 +13021,26 @@
         <f t="shared" si="35"/>
         <v>24</v>
       </c>
+      <c r="E171" s="11">
+        <v>8</v>
+      </c>
+      <c r="F171" s="11">
+        <v>8</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="36"/>
+        <v>19.2</v>
+      </c>
+      <c r="H171" s="12">
+        <v>9</v>
+      </c>
+      <c r="I171" s="12">
+        <v>9</v>
+      </c>
+      <c r="J171">
+        <f>SUM(H171:I171)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K171" s="11">
         <v>7</v>
       </c>
@@ -12173,29 +13048,43 @@
         <v>9</v>
       </c>
       <c r="M171">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
-      <c r="S171" s="12">
+      <c r="N171">
+        <v>6</v>
+      </c>
+      <c r="O171">
+        <v>6</v>
+      </c>
+      <c r="P171">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S171" s="13">
         <v>3</v>
       </c>
       <c r="T171">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U171" s="12">
+      <c r="U171" s="13">
         <v>3</v>
       </c>
       <c r="V171">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W171">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.015739314593762</v>
       </c>
       <c r="X171">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -12213,6 +13102,26 @@
         <f t="shared" si="35"/>
         <v>18</v>
       </c>
+      <c r="E172" s="11">
+        <v>6</v>
+      </c>
+      <c r="F172" s="11">
+        <v>6</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="36"/>
+        <v>14.4</v>
+      </c>
+      <c r="H172" s="12">
+        <v>9</v>
+      </c>
+      <c r="I172" s="12">
+        <v>9</v>
+      </c>
+      <c r="J172">
+        <f>SUM(H172:I172)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K172" s="11">
         <v>7</v>
       </c>
@@ -12220,30 +13129,48 @@
         <v>7</v>
       </c>
       <c r="M172">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
-      <c r="S172" s="12">
+      <c r="N172">
+        <v>6</v>
+      </c>
+      <c r="O172">
+        <v>6</v>
+      </c>
+      <c r="P172">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q172">
+        <f>SUM(D172,G172,J172,M172,P172)</f>
+        <v>80</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="39"/>
+        <v>0.0163492193247772</v>
+      </c>
+      <c r="S172" s="13">
         <v>4</v>
       </c>
       <c r="T172">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.0107816711590297</v>
       </c>
-      <c r="U172" s="12">
+      <c r="U172" s="13">
         <v>4</v>
       </c>
       <c r="V172">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0102040816326531</v>
       </c>
       <c r="W172">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.0209857527916827</v>
       </c>
       <c r="X172">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>0.779062799751312</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -12260,6 +13187,26 @@
         <f t="shared" si="35"/>
         <v>18</v>
       </c>
+      <c r="E173" s="11">
+        <v>6</v>
+      </c>
+      <c r="F173" s="11">
+        <v>6</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="36"/>
+        <v>14.4</v>
+      </c>
+      <c r="H173" s="12">
+        <v>9</v>
+      </c>
+      <c r="I173" s="12">
+        <v>9</v>
+      </c>
+      <c r="J173">
+        <f>SUM(H173:I173)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K173" s="11">
         <v>8</v>
       </c>
@@ -12267,30 +13214,48 @@
         <v>9</v>
       </c>
       <c r="M173">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>17</v>
       </c>
-      <c r="S173" s="12">
+      <c r="N173">
+        <v>6</v>
+      </c>
+      <c r="O173">
+        <v>6</v>
+      </c>
+      <c r="P173">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q173">
+        <f>SUM(D173,G173,J173,M173,P173)</f>
+        <v>83</v>
+      </c>
+      <c r="R173">
+        <f t="shared" si="39"/>
+        <v>0.0169623150494564</v>
+      </c>
+      <c r="S173" s="13">
         <v>3</v>
       </c>
       <c r="T173">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U173" s="12">
+      <c r="U173" s="13">
         <v>3</v>
       </c>
       <c r="V173">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W173">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.015739314593762</v>
       </c>
       <c r="X173">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.07770353965598</v>
       </c>
     </row>
     <row r="174" ht="15.6" spans="1:24">
@@ -12303,28 +13268,52 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174">
+        <f>SUM(H174:I174)*1.2</f>
+        <v>0</v>
+      </c>
       <c r="K174" s="11"/>
       <c r="L174" s="11"/>
       <c r="M174">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="S174" s="12"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <f>SUM(D174,G174,J174,M174,P174)</f>
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S174" s="13"/>
       <c r="T174">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="U174" s="12"/>
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U174" s="13"/>
       <c r="V174">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W174">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X174" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12342,6 +13331,26 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
+      <c r="E175" s="11">
+        <v>7</v>
+      </c>
+      <c r="F175" s="11">
+        <v>7</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="36"/>
+        <v>16.8</v>
+      </c>
+      <c r="H175" s="12">
+        <v>9</v>
+      </c>
+      <c r="I175" s="12">
+        <v>9</v>
+      </c>
+      <c r="J175">
+        <f>SUM(H175:I175)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K175" s="11">
         <v>8</v>
       </c>
@@ -12349,30 +13358,48 @@
         <v>8</v>
       </c>
       <c r="M175">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
-      <c r="S175" s="12">
+      <c r="N175">
+        <v>6</v>
+      </c>
+      <c r="O175">
+        <v>6</v>
+      </c>
+      <c r="P175">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q175">
+        <f>SUM(D175,G175,J175,M175,P175)</f>
+        <v>87.4</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="39"/>
+        <v>0.0178615221123191</v>
+      </c>
+      <c r="S175" s="13">
         <v>2</v>
       </c>
       <c r="T175">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00539083557951483</v>
       </c>
-      <c r="U175" s="12">
+      <c r="U175" s="13">
         <v>2</v>
       </c>
       <c r="V175">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.00510204081632653</v>
       </c>
       <c r="W175">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.0104928763958414</v>
       </c>
       <c r="X175">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1.70225221745662</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -12389,6 +13416,26 @@
         <f t="shared" si="35"/>
         <v>18</v>
       </c>
+      <c r="E176" s="11">
+        <v>6</v>
+      </c>
+      <c r="F176" s="11">
+        <v>6</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="36"/>
+        <v>14.4</v>
+      </c>
+      <c r="H176" s="12">
+        <v>9</v>
+      </c>
+      <c r="I176" s="12">
+        <v>9</v>
+      </c>
+      <c r="J176">
+        <f>SUM(H176:I176)*1.2</f>
+        <v>21.6</v>
+      </c>
       <c r="K176" s="11">
         <v>7</v>
       </c>
@@ -12396,31 +13443,53 @@
         <v>8</v>
       </c>
       <c r="M176">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
-      <c r="S176" s="12">
+      <c r="N176">
+        <v>6</v>
+      </c>
+      <c r="O176">
+        <v>6</v>
+      </c>
+      <c r="P176">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="Q176">
+        <f>SUM(D176,G176,J176,M176,P176)</f>
+        <v>81</v>
+      </c>
+      <c r="R176">
+        <f t="shared" si="39"/>
+        <v>0.016553584566337</v>
+      </c>
+      <c r="S176" s="13">
         <v>3</v>
       </c>
       <c r="T176">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U176" s="12">
+      <c r="U176" s="13">
         <v>3</v>
       </c>
       <c r="V176">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0076530612244898</v>
       </c>
       <c r="W176">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.015739314593762</v>
       </c>
       <c r="X176">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="43"/>
+        <v>1.05173477966427</v>
+      </c>
+    </row>
+    <row r="177" spans="8:9">
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
